--- a/medicine/Mort/Cimetière_de_Novodievitchi/Cimetière_de_Novodievitchi.xlsx
+++ b/medicine/Mort/Cimetière_de_Novodievitchi/Cimetière_de_Novodievitchi.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Cimeti%C3%A8re_de_Novodievitchi</t>
+          <t>Cimetière_de_Novodievitchi</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Le cimetière de Novodievitchi ou Novodiévitchi (en russe : Новодевичье кладбище), ouvert en 1849 dans les faubourgs sud-ouest de Moscou (Russie), est situé juste à côté du couvent de Novodevitchi. C'est le cimetière le plus prestigieux de la ville avec ses monuments funéraires et ses chapelles. C'est ici qu'ont été enterrées des personnalités historiques éminentes, ou de la nomenklatura, artistes, grands soldats, ou hommes politiques.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Cimeti%C3%A8re_de_Novodievitchi</t>
+          <t>Cimetière_de_Novodievitchi</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,11 +523,13 @@
           <t>Historique</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Comme d'autres monastères moscovites (dont le monastère de Danilov et le monastère de Donskoï), le couvent de Novodievitchi fut choisi par la noblesse russe comme lieu de sépulture. Denis Davydov, Sergueï Soloviov et Alexis Broussilov sont enterrés dans son enceinte.
 Le nouveau cimetière de Novodievitchi situé hors des murailles du couvent a été dessiné par l'architecte Ivan Machkov (en) et inauguré en 1898. Anton Tchekhov fut l'une des premières personnalités à y être enterré. Sa tombe est actuellement le centre d'une section du cimetière appelée "la Cerisaie", où sont également enterrés Constantin Stanislavski et certains acteurs de sa compagnie.
-Dans les années 1930, les autorités soviétiques décident de détruire les cimetières des monastères médiévaux moscovites (Simonov, Danilov et Donskoï). Seul ce dernier échappe à la démolition totale. Mais de nombreuses sépultures de familles nobles et de marchands y furent détruites. Sur 2 811 monuments funéraires il n'en demeura pas plus de cent[1]. En 1931, la dépouille de Nicolas Gogol est exhumée de son ancien cimetière et inhumée à Novodievitchi. Les plus hautes personnalités russes, telles que Pierre Kropotkine, Nikita Khrouchtchev, Serge Prokofiev, Dmitri Chostakovitch, Constantin Stanislavski, Fédor Chaliapine ou Mikhaïl Gorbatchev y sont inhumées.
+Dans les années 1930, les autorités soviétiques décident de détruire les cimetières des monastères médiévaux moscovites (Simonov, Danilov et Donskoï). Seul ce dernier échappe à la démolition totale. Mais de nombreuses sépultures de familles nobles et de marchands y furent détruites. Sur 2 811 monuments funéraires il n'en demeura pas plus de cent. En 1931, la dépouille de Nicolas Gogol est exhumée de son ancien cimetière et inhumée à Novodievitchi. Les plus hautes personnalités russes, telles que Pierre Kropotkine, Nikita Khrouchtchev, Serge Prokofiev, Dmitri Chostakovitch, Constantin Stanislavski, Fédor Chaliapine ou Mikhaïl Gorbatchev y sont inhumées.
 De très nombreux compositeurs et musiciens y sont aussi enterrés, comme les frères Anton et Nikolaï Rubinstein, Alexandre Scriabine, Vladimir Sofronitsky.
 Iakov Iourovski, organisateur de l'exécution de la famille impériale russe, y est inhumé.
 </t>
@@ -528,7 +542,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Cimeti%C3%A8re_de_Novodievitchi</t>
+          <t>Cimetière_de_Novodievitchi</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -547,6 +561,8 @@
         </is>
       </c>
       <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
